--- a/biology/Médecine/Cément/Cément.xlsx
+++ b/biology/Médecine/Cément/Cément.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F3"/>
+  <dimension ref="A1:H3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>C%C3%A9ment</t>
+          <t>Cément</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,10 +490,12 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Le cément dentaire est le tissu qui recouvre la dentine au niveau de la racine.
-La couronne de la dent est protégée par l'émail, mais la racine n'est protégée que par le cément[1], une couche de cellules constituant un tissu calcifié fin et dur permettant la forte cohésion, par l’intermédiaire de la racine, d’une dent avec l’os constituant la mâchoire dans laquelle elle est implantée.
+La couronne de la dent est protégée par l'émail, mais la racine n'est protégée que par le cément, une couche de cellules constituant un tissu calcifié fin et dur permettant la forte cohésion, par l’intermédiaire de la racine, d’une dent avec l’os constituant la mâchoire dans laquelle elle est implantée.
 La maladie correspondant à la destruction du cément et des tissus de soutien qui l’accompagnent est la parodontopathie.
 </t>
         </is>
@@ -495,7 +507,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>C%C3%A9ment</t>
+          <t>Cément</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -513,7 +525,9 @@
           <t>Description</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Le cément est une couche de tissu conjonctif minéralisé (phase organique = 25 %, phase inorganique = 65 %, eau = 10 %), relativement fine dans la portion coronaire de la racine (20 à 60 micromètres) et plus épaisse dans la portion apicale de la racine (100 à 200 micromètres).
 On distingue :
